--- a/SMALL_PROJECTS/MAP_XCEL_COLLAPSE/TelecommArchPlans_1000s_20160421.xlsx
+++ b/SMALL_PROJECTS/MAP_XCEL_COLLAPSE/TelecommArchPlans_1000s_20160421.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caitl\Documents\Archives\SMALL_PROJECTS\MAP_XCEL_COLLAPSE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="820" windowWidth="30180" windowHeight="17640"/>
+    <workbookView xWindow="1176" yWindow="816" windowWidth="30180" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1391,7 +1396,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -1498,7 +1503,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1508,6 +1513,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -1527,6 +1533,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1822,21 +1831,21 @@
   <dimension ref="A1:H341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="2"/>
-    <col min="3" max="3" width="22.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="2"/>
+    <col min="3" max="3" width="22.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="54.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
+    <col min="5" max="5" width="30.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>453</v>
       </c>
@@ -1862,8 +1871,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B2" s="2">
@@ -1885,8 +1894,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B3" s="2">
@@ -1908,8 +1917,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B4" s="2">
@@ -1931,8 +1940,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B5" s="2">
@@ -1954,8 +1963,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B6" s="2">
@@ -1977,8 +1986,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B7" s="2">
@@ -2000,8 +2009,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B8" s="2">
@@ -2023,8 +2032,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B9" s="2">
@@ -2046,8 +2055,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B10" s="2">
@@ -2069,8 +2078,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B11" s="2">
@@ -2092,8 +2101,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B12" s="2">
@@ -2115,8 +2124,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B13" s="2">
@@ -2138,8 +2147,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B14" s="2">
@@ -2161,8 +2170,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B15" s="2">
@@ -2184,8 +2193,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B16" s="2">
@@ -2207,8 +2216,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B17" s="2">
@@ -2230,8 +2239,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B18" s="2">
@@ -2253,8 +2262,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B19" s="2">
@@ -2276,8 +2285,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B20" s="2">
@@ -2299,8 +2308,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B21" s="2">
@@ -2322,8 +2331,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B22" s="2">
@@ -2345,7 +2354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>392</v>
       </c>
@@ -2368,7 +2377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>392</v>
       </c>
@@ -2391,7 +2400,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>392</v>
       </c>
@@ -2414,7 +2423,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>392</v>
       </c>
@@ -2437,7 +2446,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>392</v>
       </c>
@@ -2460,7 +2469,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>392</v>
       </c>
@@ -2483,7 +2492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>392</v>
       </c>
@@ -2506,7 +2515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>392</v>
       </c>
@@ -2529,7 +2538,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>392</v>
       </c>
@@ -2552,7 +2561,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>392</v>
       </c>
@@ -2575,7 +2584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15">
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>392</v>
       </c>
@@ -2598,7 +2607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15">
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>392</v>
       </c>
@@ -2621,7 +2630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>392</v>
       </c>
@@ -2644,7 +2653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15">
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>392</v>
       </c>
@@ -2667,7 +2676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>392</v>
       </c>
@@ -2690,7 +2699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15">
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>392</v>
       </c>
@@ -2713,7 +2722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>392</v>
       </c>
@@ -2736,7 +2745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15">
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>392</v>
       </c>
@@ -2759,7 +2768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15">
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>392</v>
       </c>
@@ -2782,7 +2791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15">
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>392</v>
       </c>
@@ -2805,7 +2814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15">
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>404</v>
       </c>
@@ -2828,7 +2837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15">
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>404</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15">
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>404</v>
       </c>
@@ -2874,7 +2883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15">
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>404</v>
       </c>
@@ -2897,7 +2906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15">
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>405</v>
       </c>
@@ -2920,7 +2929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15">
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>405</v>
       </c>
@@ -2943,7 +2952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>405</v>
       </c>
@@ -2966,7 +2975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>405</v>
       </c>
@@ -2989,7 +2998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>405</v>
       </c>
@@ -3012,7 +3021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15">
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>405</v>
       </c>
@@ -3035,7 +3044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15">
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>405</v>
       </c>
@@ -3058,7 +3067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15">
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>405</v>
       </c>
@@ -3081,7 +3090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15">
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>405</v>
       </c>
@@ -3104,7 +3113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15">
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>405</v>
       </c>
@@ -3127,7 +3136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15">
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>405</v>
       </c>
@@ -3150,7 +3159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15">
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>405</v>
       </c>
@@ -3173,7 +3182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15">
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>405</v>
       </c>
@@ -3196,7 +3205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15">
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>405</v>
       </c>
@@ -3219,7 +3228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15">
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>405</v>
       </c>
@@ -3242,7 +3251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15">
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>405</v>
       </c>
@@ -3265,7 +3274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15">
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>405</v>
       </c>
@@ -3288,7 +3297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15">
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>405</v>
       </c>
@@ -3311,7 +3320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15">
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>405</v>
       </c>
@@ -3334,7 +3343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15">
+    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>405</v>
       </c>
@@ -3357,7 +3366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15">
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>406</v>
       </c>
@@ -3380,7 +3389,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15">
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>406</v>
       </c>
@@ -3403,7 +3412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15">
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>406</v>
       </c>
@@ -3426,7 +3435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15">
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>406</v>
       </c>
@@ -3449,7 +3458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15">
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>406</v>
       </c>
@@ -3472,7 +3481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15">
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>406</v>
       </c>
@@ -3495,7 +3504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15">
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>406</v>
       </c>
@@ -3518,7 +3527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15">
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>406</v>
       </c>
@@ -3541,7 +3550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15">
+    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>406</v>
       </c>
@@ -3564,7 +3573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15">
+    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>406</v>
       </c>
@@ -3587,7 +3596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15">
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>406</v>
       </c>
@@ -3610,7 +3619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15">
+    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>406</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15">
+    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>406</v>
       </c>
@@ -3656,7 +3665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15">
+    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>406</v>
       </c>
@@ -3679,7 +3688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>419</v>
       </c>
@@ -3702,7 +3711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>419</v>
       </c>
@@ -3725,7 +3734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>419</v>
       </c>
@@ -3748,7 +3757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>419</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>419</v>
       </c>
@@ -3794,7 +3803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>419</v>
       </c>
@@ -3817,7 +3826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>419</v>
       </c>
@@ -3840,7 +3849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>419</v>
       </c>
@@ -3863,7 +3872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>419</v>
       </c>
@@ -3886,7 +3895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>407</v>
       </c>
@@ -3909,7 +3918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>407</v>
       </c>
@@ -3932,7 +3941,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>407</v>
       </c>
@@ -3955,7 +3964,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>407</v>
       </c>
@@ -3978,7 +3987,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>407</v>
       </c>
@@ -4001,7 +4010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>407</v>
       </c>
@@ -4024,7 +4033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15">
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>407</v>
       </c>
@@ -4047,7 +4056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15">
+    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>407</v>
       </c>
@@ -4070,7 +4079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15">
+    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>407</v>
       </c>
@@ -4093,7 +4102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15">
+    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>407</v>
       </c>
@@ -4116,7 +4125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15">
+    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>407</v>
       </c>
@@ -4139,7 +4148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15">
+    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>407</v>
       </c>
@@ -4162,7 +4171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15">
+    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>433</v>
       </c>
@@ -4185,7 +4194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15">
+    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>433</v>
       </c>
@@ -4208,7 +4217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15">
+    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>410</v>
       </c>
@@ -4231,7 +4240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15">
+    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>410</v>
       </c>
@@ -4254,7 +4263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15">
+    <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>410</v>
       </c>
@@ -4277,7 +4286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15">
+    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>414</v>
       </c>
@@ -4300,7 +4309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15">
+    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>414</v>
       </c>
@@ -4323,7 +4332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15">
+    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>414</v>
       </c>
@@ -4346,7 +4355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15">
+    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>415</v>
       </c>
@@ -4366,7 +4375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15">
+    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>415</v>
       </c>
@@ -4386,7 +4395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15">
+    <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>415</v>
       </c>
@@ -4406,7 +4415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15">
+    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>415</v>
       </c>
@@ -4426,7 +4435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15">
+    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>413</v>
       </c>
@@ -4446,7 +4455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15">
+    <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>413</v>
       </c>
@@ -4466,7 +4475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15">
+    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>413</v>
       </c>
@@ -4486,7 +4495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15">
+    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>413</v>
       </c>
@@ -4506,7 +4515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15">
+    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>420</v>
       </c>
@@ -4526,7 +4535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15">
+    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>420</v>
       </c>
@@ -4546,7 +4555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15">
+    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>420</v>
       </c>
@@ -4566,7 +4575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15">
+    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>420</v>
       </c>
@@ -4586,7 +4595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15">
+    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>408</v>
       </c>
@@ -4609,7 +4618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15">
+    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>408</v>
       </c>
@@ -4632,7 +4641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15">
+    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>408</v>
       </c>
@@ -4655,7 +4664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15">
+    <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>408</v>
       </c>
@@ -4678,7 +4687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15">
+    <row r="126" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>408</v>
       </c>
@@ -4698,7 +4707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15">
+    <row r="127" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>408</v>
       </c>
@@ -4718,7 +4727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15">
+    <row r="128" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>408</v>
       </c>
@@ -4738,7 +4747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15">
+    <row r="129" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>408</v>
       </c>
@@ -4758,7 +4767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15">
+    <row r="130" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>408</v>
       </c>
@@ -4778,7 +4787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15">
+    <row r="131" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>408</v>
       </c>
@@ -4798,7 +4807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15">
+    <row r="132" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>408</v>
       </c>
@@ -4818,7 +4827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15">
+    <row r="133" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>408</v>
       </c>
@@ -4838,7 +4847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15">
+    <row r="134" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>408</v>
       </c>
@@ -4861,7 +4870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15">
+    <row r="135" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>408</v>
       </c>
@@ -4884,7 +4893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15">
+    <row r="136" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>408</v>
       </c>
@@ -4907,7 +4916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15">
+    <row r="137" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>408</v>
       </c>
@@ -4930,7 +4939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15">
+    <row r="138" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>408</v>
       </c>
@@ -4953,7 +4962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15">
+    <row r="139" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>432</v>
       </c>
@@ -4976,7 +4985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15">
+    <row r="140" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>432</v>
       </c>
@@ -4999,7 +5008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15">
+    <row r="141" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>432</v>
       </c>
@@ -5022,7 +5031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15">
+    <row r="142" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>409</v>
       </c>
@@ -5045,7 +5054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15">
+    <row r="143" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>409</v>
       </c>
@@ -5068,7 +5077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15">
+    <row r="144" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>409</v>
       </c>
@@ -5091,7 +5100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15">
+    <row r="145" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>409</v>
       </c>
@@ -5114,7 +5123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15">
+    <row r="146" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>409</v>
       </c>
@@ -5137,7 +5146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15">
+    <row r="147" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>409</v>
       </c>
@@ -5160,7 +5169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15">
+    <row r="148" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>409</v>
       </c>
@@ -5183,7 +5192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15">
+    <row r="149" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>409</v>
       </c>
@@ -5206,7 +5215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15">
+    <row r="150" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>409</v>
       </c>
@@ -5229,7 +5238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15">
+    <row r="151" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>409</v>
       </c>
@@ -5252,7 +5261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15">
+    <row r="152" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>409</v>
       </c>
@@ -5275,7 +5284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15">
+    <row r="153" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>409</v>
       </c>
@@ -5298,7 +5307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15">
+    <row r="154" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>409</v>
       </c>
@@ -5321,7 +5330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15">
+    <row r="155" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>409</v>
       </c>
@@ -5344,7 +5353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15">
+    <row r="156" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>409</v>
       </c>
@@ -5367,7 +5376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15">
+    <row r="157" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>409</v>
       </c>
@@ -5390,7 +5399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15">
+    <row r="158" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>409</v>
       </c>
@@ -5413,7 +5422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15">
+    <row r="159" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>417</v>
       </c>
@@ -5436,7 +5445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15">
+    <row r="160" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>391</v>
       </c>
@@ -5456,7 +5465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15">
+    <row r="161" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>391</v>
       </c>
@@ -5479,7 +5488,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15">
+    <row r="162" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>403</v>
       </c>
@@ -5496,7 +5505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15">
+    <row r="163" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>403</v>
       </c>
@@ -5516,7 +5525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15">
+    <row r="164" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>393</v>
       </c>
@@ -5539,7 +5548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15">
+    <row r="165" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>393</v>
       </c>
@@ -5562,7 +5571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15">
+    <row r="166" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>393</v>
       </c>
@@ -5579,7 +5588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>393</v>
       </c>
@@ -5602,7 +5611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15">
+    <row r="168" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>394</v>
       </c>
@@ -5622,7 +5631,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15">
+    <row r="169" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>395</v>
       </c>
@@ -5645,7 +5654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15">
+    <row r="170" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>395</v>
       </c>
@@ -5668,7 +5677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15">
+    <row r="171" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>395</v>
       </c>
@@ -5691,7 +5700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15">
+    <row r="172" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>395</v>
       </c>
@@ -5714,7 +5723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15">
+    <row r="173" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>395</v>
       </c>
@@ -5737,7 +5746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15">
+    <row r="174" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>395</v>
       </c>
@@ -5760,7 +5769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15">
+    <row r="175" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>395</v>
       </c>
@@ -5783,7 +5792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15">
+    <row r="176" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>395</v>
       </c>
@@ -5806,7 +5815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15">
+    <row r="177" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>399</v>
       </c>
@@ -5829,7 +5838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15">
+    <row r="178" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>399</v>
       </c>
@@ -5852,7 +5861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15">
+    <row r="179" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>412</v>
       </c>
@@ -5875,7 +5884,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15">
+    <row r="180" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>412</v>
       </c>
@@ -5898,7 +5907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15">
+    <row r="181" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>412</v>
       </c>
@@ -5921,7 +5930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15">
+    <row r="182" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>412</v>
       </c>
@@ -5944,7 +5953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15">
+    <row r="183" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>412</v>
       </c>
@@ -5967,7 +5976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15">
+    <row r="184" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>412</v>
       </c>
@@ -5990,7 +5999,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15">
+    <row r="185" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>412</v>
       </c>
@@ -6013,7 +6022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15">
+    <row r="186" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>412</v>
       </c>
@@ -6036,7 +6045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15">
+    <row r="187" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>412</v>
       </c>
@@ -6059,7 +6068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15">
+    <row r="188" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>412</v>
       </c>
@@ -6082,7 +6091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15">
+    <row r="189" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>412</v>
       </c>
@@ -6105,7 +6114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15">
+    <row r="190" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>412</v>
       </c>
@@ -6128,7 +6137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15">
+    <row r="191" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>412</v>
       </c>
@@ -6151,7 +6160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15">
+    <row r="192" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>412</v>
       </c>
@@ -6174,7 +6183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15">
+    <row r="193" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>412</v>
       </c>
@@ -6197,7 +6206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15">
+    <row r="194" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>412</v>
       </c>
@@ -6220,7 +6229,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15">
+    <row r="195" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>412</v>
       </c>
@@ -6243,7 +6252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15">
+    <row r="196" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>412</v>
       </c>
@@ -6266,7 +6275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15">
+    <row r="197" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>412</v>
       </c>
@@ -6289,7 +6298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15">
+    <row r="198" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>412</v>
       </c>
@@ -6312,7 +6321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15">
+    <row r="199" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>412</v>
       </c>
@@ -6335,7 +6344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15">
+    <row r="200" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>412</v>
       </c>
@@ -6358,7 +6367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15">
+    <row r="201" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>412</v>
       </c>
@@ -6381,7 +6390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15">
+    <row r="202" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>412</v>
       </c>
@@ -6404,7 +6413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15">
+    <row r="203" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>412</v>
       </c>
@@ -6427,7 +6436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15">
+    <row r="204" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>412</v>
       </c>
@@ -6450,7 +6459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15">
+    <row r="205" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>412</v>
       </c>
@@ -6473,7 +6482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15">
+    <row r="206" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>412</v>
       </c>
@@ -6496,7 +6505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15">
+    <row r="207" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>412</v>
       </c>
@@ -6519,7 +6528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15">
+    <row r="208" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>412</v>
       </c>
@@ -6542,7 +6551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15">
+    <row r="209" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>412</v>
       </c>
@@ -6565,7 +6574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15">
+    <row r="210" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>412</v>
       </c>
@@ -6588,7 +6597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15">
+    <row r="211" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>412</v>
       </c>
@@ -6611,7 +6620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15">
+    <row r="212" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>412</v>
       </c>
@@ -6634,7 +6643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15">
+    <row r="213" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>412</v>
       </c>
@@ -6657,7 +6666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15">
+    <row r="214" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>412</v>
       </c>
@@ -6680,7 +6689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15">
+    <row r="215" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>412</v>
       </c>
@@ -6703,7 +6712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="15">
+    <row r="216" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>412</v>
       </c>
@@ -6726,7 +6735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15">
+    <row r="217" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>412</v>
       </c>
@@ -6749,7 +6758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15">
+    <row r="218" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>412</v>
       </c>
@@ -6772,7 +6781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15">
+    <row r="219" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>412</v>
       </c>
@@ -6795,7 +6804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15">
+    <row r="220" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>412</v>
       </c>
@@ -6818,7 +6827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15">
+    <row r="221" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>412</v>
       </c>
@@ -6841,7 +6850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15">
+    <row r="222" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>412</v>
       </c>
@@ -6864,7 +6873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15">
+    <row r="223" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>412</v>
       </c>
@@ -6887,7 +6896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15">
+    <row r="224" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>412</v>
       </c>
@@ -6910,7 +6919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15">
+    <row r="225" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>412</v>
       </c>
@@ -6933,7 +6942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15">
+    <row r="226" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>412</v>
       </c>
@@ -6956,7 +6965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15">
+    <row r="227" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>412</v>
       </c>
@@ -6979,7 +6988,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="15">
+    <row r="228" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>412</v>
       </c>
@@ -7002,7 +7011,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="15">
+    <row r="229" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>421</v>
       </c>
@@ -7022,7 +7031,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="15">
+    <row r="230" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>421</v>
       </c>
@@ -7042,7 +7051,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="15">
+    <row r="231" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>421</v>
       </c>
@@ -7062,7 +7071,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15">
+    <row r="232" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>421</v>
       </c>
@@ -7082,7 +7091,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="8"/>
       <c r="B233" s="2">
         <v>1029</v>
@@ -7103,7 +7112,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="15">
+    <row r="234" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>422</v>
       </c>
@@ -7126,7 +7135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15">
+    <row r="235" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>422</v>
       </c>
@@ -7149,7 +7158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="15">
+    <row r="236" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>422</v>
       </c>
@@ -7172,7 +7181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="15">
+    <row r="237" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>422</v>
       </c>
@@ -7195,7 +7204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="15">
+    <row r="238" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>423</v>
       </c>
@@ -7218,7 +7227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="15">
+    <row r="239" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>423</v>
       </c>
@@ -7241,7 +7250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15">
+    <row r="240" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>424</v>
       </c>
@@ -7264,7 +7273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15">
+    <row r="241" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>424</v>
       </c>
@@ -7287,7 +7296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15">
+    <row r="242" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>416</v>
       </c>
@@ -7307,7 +7316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15">
+    <row r="243" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>416</v>
       </c>
@@ -7324,7 +7333,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="15">
+    <row r="244" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>425</v>
       </c>
@@ -7344,7 +7353,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="15">
+    <row r="245" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>425</v>
       </c>
@@ -7367,7 +7376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="15">
+    <row r="246" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>425</v>
       </c>
@@ -7390,7 +7399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="15">
+    <row r="247" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>425</v>
       </c>
@@ -7413,7 +7422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="15">
+    <row r="248" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>425</v>
       </c>
@@ -7436,7 +7445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="15">
+    <row r="249" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>434</v>
       </c>
@@ -7459,7 +7468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="15">
+    <row r="250" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>434</v>
       </c>
@@ -7482,7 +7491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="15">
+    <row r="251" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>434</v>
       </c>
@@ -7505,7 +7514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="15">
+    <row r="252" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>426</v>
       </c>
@@ -7528,7 +7537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="15">
+    <row r="253" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>426</v>
       </c>
@@ -7551,7 +7560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="15">
+    <row r="254" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>426</v>
       </c>
@@ -7574,7 +7583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="15">
+    <row r="255" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>426</v>
       </c>
@@ -7597,7 +7606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="15">
+    <row r="256" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>426</v>
       </c>
@@ -7620,7 +7629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="15">
+    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>426</v>
       </c>
@@ -7643,7 +7652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="15">
+    <row r="258" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>426</v>
       </c>
@@ -7666,7 +7675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="15">
+    <row r="259" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>426</v>
       </c>
@@ -7689,7 +7698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15">
+    <row r="260" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>426</v>
       </c>
@@ -7712,7 +7721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="15">
+    <row r="261" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>426</v>
       </c>
@@ -7735,7 +7744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="15">
+    <row r="262" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>426</v>
       </c>
@@ -7758,7 +7767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="15">
+    <row r="263" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>426</v>
       </c>
@@ -7781,7 +7790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="15">
+    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>426</v>
       </c>
@@ -7804,7 +7813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15">
+    <row r="265" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>426</v>
       </c>
@@ -7827,7 +7836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="15">
+    <row r="266" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>426</v>
       </c>
@@ -7850,7 +7859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="15">
+    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>426</v>
       </c>
@@ -7873,7 +7882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="15">
+    <row r="268" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>426</v>
       </c>
@@ -7896,7 +7905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="15">
+    <row r="269" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>426</v>
       </c>
@@ -7919,7 +7928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="15">
+    <row r="270" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>426</v>
       </c>
@@ -7942,7 +7951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="15">
+    <row r="271" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>426</v>
       </c>
@@ -7965,7 +7974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="15">
+    <row r="272" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>426</v>
       </c>
@@ -7988,7 +7997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="15">
+    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>426</v>
       </c>
@@ -8011,7 +8020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="15">
+    <row r="274" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>426</v>
       </c>
@@ -8034,7 +8043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="15">
+    <row r="275" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>426</v>
       </c>
@@ -8057,7 +8066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="15">
+    <row r="276" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>426</v>
       </c>
@@ -8080,7 +8089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="15">
+    <row r="277" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>426</v>
       </c>
@@ -8103,7 +8112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>390</v>
       </c>
@@ -8126,7 +8135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>390</v>
       </c>
@@ -8149,7 +8158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>390</v>
       </c>
@@ -8172,7 +8181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>390</v>
       </c>
@@ -8195,7 +8204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="15">
+    <row r="282" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>411</v>
       </c>
@@ -8218,7 +8227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="15">
+    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>411</v>
       </c>
@@ -8241,7 +8250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15">
+    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>411</v>
       </c>
@@ -8264,7 +8273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="15">
+    <row r="285" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>411</v>
       </c>
@@ -8287,7 +8296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="15">
+    <row r="286" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>411</v>
       </c>
@@ -8310,7 +8319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="15">
+    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>411</v>
       </c>
@@ -8333,7 +8342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="15">
+    <row r="288" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>411</v>
       </c>
@@ -8356,7 +8365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="15">
+    <row r="289" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>435</v>
       </c>
@@ -8379,7 +8388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="15">
+    <row r="290" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>435</v>
       </c>
@@ -8402,7 +8411,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="15">
+    <row r="291" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>435</v>
       </c>
@@ -8425,7 +8434,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="15">
+    <row r="292" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>435</v>
       </c>
@@ -8448,7 +8457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="15">
+    <row r="293" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>435</v>
       </c>
@@ -8471,7 +8480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="15">
+    <row r="294" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>435</v>
       </c>
@@ -8494,7 +8503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="15">
+    <row r="295" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>435</v>
       </c>
@@ -8517,7 +8526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="15">
+    <row r="296" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>435</v>
       </c>
@@ -8540,7 +8549,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="15">
+    <row r="297" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>435</v>
       </c>
@@ -8563,7 +8572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="15">
+    <row r="298" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>435</v>
       </c>
@@ -8586,7 +8595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="15">
+    <row r="299" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>435</v>
       </c>
@@ -8609,7 +8618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="15">
+    <row r="300" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>435</v>
       </c>
@@ -8632,7 +8641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="15">
+    <row r="301" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>450</v>
       </c>
@@ -8655,7 +8664,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="15">
+    <row r="302" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>450</v>
       </c>
@@ -8678,7 +8687,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="15">
+    <row r="303" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>450</v>
       </c>
@@ -8701,7 +8710,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="15">
+    <row r="304" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>450</v>
       </c>
@@ -8724,7 +8733,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="15">
+    <row r="305" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>450</v>
       </c>
@@ -8747,7 +8756,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="15">
+    <row r="306" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>450</v>
       </c>
@@ -8770,7 +8779,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="15">
+    <row r="307" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>450</v>
       </c>
@@ -8793,7 +8802,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="15">
+    <row r="308" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>450</v>
       </c>
@@ -8816,7 +8825,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="15">
+    <row r="309" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>450</v>
       </c>
@@ -8839,7 +8848,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="15">
+    <row r="310" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>450</v>
       </c>
@@ -8862,7 +8871,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="15">
+    <row r="311" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>450</v>
       </c>
@@ -8885,7 +8894,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="15">
+    <row r="312" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>450</v>
       </c>
@@ -8908,7 +8917,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="15">
+    <row r="313" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>398</v>
       </c>
@@ -8931,7 +8940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="15">
+    <row r="314" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>398</v>
       </c>
@@ -8954,7 +8963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="15">
+    <row r="315" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>449</v>
       </c>
@@ -8977,7 +8986,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="15">
+    <row r="316" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>401</v>
       </c>
@@ -9000,7 +9009,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="15">
+    <row r="317" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>451</v>
       </c>
@@ -9023,7 +9032,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="15">
+    <row r="318" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>445</v>
       </c>
@@ -9044,7 +9053,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="15">
+    <row r="319" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>439</v>
       </c>
@@ -9067,7 +9076,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="15">
+    <row r="320" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>428</v>
       </c>
@@ -9090,7 +9099,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="15">
+    <row r="321" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>440</v>
       </c>
@@ -9113,7 +9122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="15">
+    <row r="322" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>442</v>
       </c>
@@ -9136,7 +9145,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="15">
+    <row r="323" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>400</v>
       </c>
@@ -9159,7 +9168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15">
+    <row r="324" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>430</v>
       </c>
@@ -9182,7 +9191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="15">
+    <row r="325" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>431</v>
       </c>
@@ -9205,7 +9214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="15">
+    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>438</v>
       </c>
@@ -9228,7 +9237,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="15">
+    <row r="327" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>446</v>
       </c>
@@ -9251,7 +9260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="15">
+    <row r="328" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>396</v>
       </c>
@@ -9271,7 +9280,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15">
+    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>397</v>
       </c>
@@ -9288,7 +9297,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="15">
+    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>429</v>
       </c>
@@ -9311,7 +9320,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="15">
+    <row r="331" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>418</v>
       </c>
@@ -9334,7 +9343,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="15">
+    <row r="332" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>402</v>
       </c>
@@ -9357,7 +9366,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="15">
+    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>447</v>
       </c>
@@ -9380,7 +9389,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="15">
+    <row r="334" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>437</v>
       </c>
@@ -9403,7 +9412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="15">
+    <row r="335" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>436</v>
       </c>
@@ -9426,7 +9435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="15">
+    <row r="336" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>444</v>
       </c>
@@ -9449,7 +9458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="15">
+    <row r="337" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>448</v>
       </c>
@@ -9472,7 +9481,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="15">
+    <row r="338" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>427</v>
       </c>
@@ -9495,7 +9504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="15">
+    <row r="339" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>452</v>
       </c>
@@ -9518,7 +9527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="15">
+    <row r="340" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>443</v>
       </c>
@@ -9541,7 +9550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="15">
+    <row r="341" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>441</v>
       </c>
@@ -9585,7 +9594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -9602,7 +9611,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
